--- a/StanfordMuseum/Main/power/power_mse_report.xlsx
+++ b/StanfordMuseum/Main/power/power_mse_report.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PNEE-data\StanfordMuseum\Main\power\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>D:\GIT\PNEE-data\StanfordMuseum\StanfordMuseum_ref_ps128.exr</t>
-  </si>
-  <si>
-    <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>D:\GIT\pbrt-scenes\StanfordMuseum\StanfordMuseum_ref_ps128.exr</t>
+  </si>
+  <si>
+    <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\\</t>
   </si>
   <si>
     <t>Filename</t>
@@ -36,6 +31,9 @@
     <t>RMSE</t>
   </si>
   <si>
+    <t>Seconds</t>
+  </si>
+  <si>
     <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\StanfordMuseum_pow_ps1024_t913_16179.exr</t>
   </si>
   <si>
@@ -58,6 +56,9 @@
   </si>
   <si>
     <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\StanfordMuseum_pow_ps2_t1_14358.exr</t>
+  </si>
+  <si>
+    <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\StanfordMuseum_pow_ps32000_t28319_77303.exr</t>
   </si>
   <si>
     <t>D:\GIT\PNEE-data\StanfordMuseum\Main\power\StanfordMuseum_pow_ps32_t28_14418.exr</t>
@@ -84,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,18 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -176,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,10 +201,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,16 +410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -446,221 +435,235 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>68.22254682072247</v>
+      </c>
+      <c r="C5">
+        <v>8.25969411181325</v>
+      </c>
+      <c r="D5">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>532.0660362818546</v>
+      </c>
+      <c r="C6">
+        <v>23.06655666288002</v>
+      </c>
+      <c r="D6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>13.51593195355128</v>
+      </c>
+      <c r="C7">
+        <v>3.67640203916156</v>
+      </c>
+      <c r="D7">
+        <v>14359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>26406.872718301511</v>
-      </c>
-      <c r="C5">
-        <v>162.50191604501629</v>
-      </c>
-      <c r="D5">
+      <c r="B8">
+        <v>4746.137808121328</v>
+      </c>
+      <c r="C8">
+        <v>68.89221877774969</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>26406.87271830151</v>
+      </c>
+      <c r="C9">
+        <v>162.5019160450163</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>30.56906625563458</v>
+      </c>
+      <c r="C10">
+        <v>5.528929937667376</v>
+      </c>
+      <c r="D10">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>25760.721575349391</v>
-      </c>
-      <c r="C6">
+      <c r="B11">
+        <v>301.7163152792044</v>
+      </c>
+      <c r="C11">
+        <v>17.36998316865058</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>25760.72157534939</v>
+      </c>
+      <c r="C12">
         <v>160.501469075362</v>
       </c>
-      <c r="D6">
+      <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>7.051493757564184</v>
+      </c>
+      <c r="C13">
+        <v>2.655464885394681</v>
+      </c>
+      <c r="D13">
+        <v>28319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="B14">
+        <v>2155.236869889766</v>
+      </c>
+      <c r="C14">
+        <v>46.42452875247918</v>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>17.91921837130457</v>
+      </c>
+      <c r="C15">
+        <v>4.233109775484753</v>
+      </c>
+      <c r="D15">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>13802.66148055695</v>
       </c>
-      <c r="C7">
-        <v>117.48472871210519</v>
-      </c>
-      <c r="D7">
+      <c r="C16">
+        <v>117.4847287121052</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>150.6967322164406</v>
+      </c>
+      <c r="C17">
+        <v>12.27585973430947</v>
+      </c>
+      <c r="D17">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B18">
+        <v>1134.017178706089</v>
+      </c>
+      <c r="C18">
+        <v>33.67517154679526</v>
+      </c>
+      <c r="D18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>34.63923618450071</v>
+      </c>
+      <c r="C19">
+        <v>5.885510698699028</v>
+      </c>
+      <c r="D19">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
         <v>7500.506074801543</v>
       </c>
-      <c r="C8">
-        <v>86.605462153385815</v>
-      </c>
-      <c r="D8">
+      <c r="C20">
+        <v>86.60546215338582</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4746.1378081213279</v>
-      </c>
-      <c r="C9">
-        <v>68.89221877774969</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>2155.2368698897658</v>
-      </c>
-      <c r="C10">
-        <v>46.424528752479183</v>
-      </c>
-      <c r="D10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1134.017178706089</v>
-      </c>
-      <c r="C11">
-        <v>33.675171546795262</v>
-      </c>
-      <c r="D11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>532.06603628185462</v>
-      </c>
-      <c r="C12">
-        <v>23.066556662880021</v>
-      </c>
-      <c r="D12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>301.71631527920442</v>
-      </c>
-      <c r="C13">
-        <v>17.369983168650581</v>
-      </c>
-      <c r="D13">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>150.69673221644061</v>
-      </c>
-      <c r="C14">
-        <v>12.275859734309471</v>
-      </c>
-      <c r="D14">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>68.222546820722471</v>
-      </c>
-      <c r="C15">
-        <v>8.2596941118132499</v>
-      </c>
-      <c r="D15">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>30.569066255634581</v>
-      </c>
-      <c r="C16">
-        <v>5.5289299376673764</v>
-      </c>
-      <c r="D16">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>17.91921837130457</v>
-      </c>
-      <c r="C17">
-        <v>4.2331097754847526</v>
-      </c>
-      <c r="D17">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>34.63923618450071</v>
-      </c>
-      <c r="C18">
-        <v>5.8855106986990284</v>
-      </c>
-      <c r="D18">
-        <v>7186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>13.515931953551281</v>
-      </c>
-      <c r="C19">
-        <v>3.6764020391615602</v>
-      </c>
-      <c r="D19">
-        <v>14359</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A5:D19">
-    <sortCondition ref="D5:D19"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StanfordMuseum/Main/power/power_mse_report.xlsx
+++ b/StanfordMuseum/Main/power/power_mse_report.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PNEE-data\StanfordMuseum\Main\power\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -85,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,10 +125,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -169,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,9 +215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,14 +426,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -439,231 +458,234 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>26406.872718301511</v>
+      </c>
+      <c r="C5">
+        <v>162.50191604501629</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>25760.721575349391</v>
+      </c>
+      <c r="C6">
+        <v>160.501469075362</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>13802.66148055695</v>
+      </c>
+      <c r="C7">
+        <v>117.48472871210519</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>7500.506074801543</v>
+      </c>
+      <c r="C8">
+        <v>86.605462153385815</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4746.1378081213279</v>
+      </c>
+      <c r="C9">
+        <v>68.89221877774969</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2155.2368698897658</v>
+      </c>
+      <c r="C10">
+        <v>46.424528752479183</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1134.017178706089</v>
+      </c>
+      <c r="C11">
+        <v>33.675171546795262</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>532.06603628185462</v>
+      </c>
+      <c r="C12">
+        <v>23.066556662880021</v>
+      </c>
+      <c r="D12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>301.71631527920442</v>
+      </c>
+      <c r="C13">
+        <v>17.369983168650581</v>
+      </c>
+      <c r="D13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>150.69673221644061</v>
+      </c>
+      <c r="C14">
+        <v>12.275859734309471</v>
+      </c>
+      <c r="D14">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>68.22254682072247</v>
-      </c>
-      <c r="C5">
-        <v>8.25969411181325</v>
-      </c>
-      <c r="D5">
+      <c r="B15">
+        <v>68.222546820722471</v>
+      </c>
+      <c r="C15">
+        <v>8.2596941118132499</v>
+      </c>
+      <c r="D15">
         <v>913</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>532.0660362818546</v>
-      </c>
-      <c r="C6">
-        <v>23.06655666288002</v>
-      </c>
-      <c r="D6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>30.569066255634581</v>
+      </c>
+      <c r="C16">
+        <v>5.5289299376673764</v>
+      </c>
+      <c r="D16">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17.91921837130457</v>
+      </c>
+      <c r="C17">
+        <v>4.2331097754847526</v>
+      </c>
+      <c r="D17">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>34.63923618450071</v>
+      </c>
+      <c r="C18">
+        <v>5.8855106986990284</v>
+      </c>
+      <c r="D18">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>13.51593195355128</v>
-      </c>
-      <c r="C7">
-        <v>3.67640203916156</v>
-      </c>
-      <c r="D7">
+      <c r="B19">
+        <v>13.515931953551281</v>
+      </c>
+      <c r="C19">
+        <v>3.6764020391615602</v>
+      </c>
+      <c r="D19">
         <v>14359</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>4746.137808121328</v>
-      </c>
-      <c r="C8">
-        <v>68.89221877774969</v>
-      </c>
-      <c r="D8">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>26406.87271830151</v>
-      </c>
-      <c r="C9">
-        <v>162.5019160450163</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>30.56906625563458</v>
-      </c>
-      <c r="C10">
-        <v>5.528929937667376</v>
-      </c>
-      <c r="D10">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>301.7163152792044</v>
-      </c>
-      <c r="C11">
-        <v>17.36998316865058</v>
-      </c>
-      <c r="D11">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>25760.72157534939</v>
-      </c>
-      <c r="C12">
-        <v>160.501469075362</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>7.051493757564184</v>
-      </c>
-      <c r="C13">
+      <c r="B20">
+        <v>7.0514937575641836</v>
+      </c>
+      <c r="C20">
         <v>2.655464885394681</v>
       </c>
-      <c r="D13">
+      <c r="D20">
         <v>28319</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>2155.236869889766</v>
-      </c>
-      <c r="C14">
-        <v>46.42452875247918</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>17.91921837130457</v>
-      </c>
-      <c r="C15">
-        <v>4.233109775484753</v>
-      </c>
-      <c r="D15">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>13802.66148055695</v>
-      </c>
-      <c r="C16">
-        <v>117.4847287121052</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>150.6967322164406</v>
-      </c>
-      <c r="C17">
-        <v>12.27585973430947</v>
-      </c>
-      <c r="D17">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>1134.017178706089</v>
-      </c>
-      <c r="C18">
-        <v>33.67517154679526</v>
-      </c>
-      <c r="D18">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>34.63923618450071</v>
-      </c>
-      <c r="C19">
-        <v>5.885510698699028</v>
-      </c>
-      <c r="D19">
-        <v>7186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>7500.506074801543</v>
-      </c>
-      <c r="C20">
-        <v>86.60546215338582</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A5:D20">
+    <sortCondition ref="D5:D20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>